--- a/src/kraken_files/excel_files/XETHZUSD.xlsx
+++ b/src/kraken_files/excel_files/XETHZUSD.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,94 +475,117 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>11.4270208</v>
+        <v>6.49168</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0625</v>
+        <v>0.025</v>
       </c>
       <c r="D2" t="n">
-        <v>3438.41190984192</v>
+        <v>3804.965750784</v>
       </c>
       <c r="E2" t="n">
-        <v>3577.90574350396</v>
+        <v>3896.575476991999</v>
       </c>
       <c r="F2" t="n">
-        <v>3613.684800939</v>
+        <v>3935.541231761919</v>
       </c>
       <c r="G2" t="n">
-        <v>4.850253985946318</v>
+        <v>3.317853207180388</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>19.12615245</v>
+        <v>11.4270208</v>
       </c>
       <c r="C3" t="n">
-        <v>0.15625</v>
+        <v>0.0625</v>
       </c>
       <c r="D3" t="n">
-        <v>3139.530849275755</v>
+        <v>3604.14081122304</v>
       </c>
       <c r="E3" t="n">
-        <v>3358.718296389858</v>
+        <v>3750.35814410752</v>
       </c>
       <c r="F3" t="n">
-        <v>3392.305479353756</v>
+        <v>3787.861725548595</v>
       </c>
       <c r="G3" t="n">
-        <v>7.451411189718549</v>
+        <v>4.850253985946296</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>31.13679782</v>
+        <v>19.12615245</v>
       </c>
       <c r="C4" t="n">
-        <v>0.390625</v>
+        <v>0.15625</v>
       </c>
       <c r="D4" t="n">
-        <v>2673.276394947818</v>
+        <v>3290.85390542656</v>
       </c>
       <c r="E4" t="n">
-        <v>3015.997345668838</v>
+        <v>3520.60602476704</v>
       </c>
       <c r="F4" t="n">
-        <v>3046.157319125526</v>
+        <v>3555.81208501471</v>
       </c>
       <c r="G4" t="n">
-        <v>12.24102648397531</v>
+        <v>7.451411189718549</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
+        <v>6</v>
+      </c>
+      <c r="B5" t="n">
+        <v>31.13679782</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.390625</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2802.126332546816</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3161.366178656928</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3192.979840443497</v>
+      </c>
+      <c r="G5" t="n">
+        <v>12.24102648397531</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
         <v>7</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B6" t="n">
         <v>49.8734046</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>0.9765625</v>
       </c>
-      <c r="D5" t="n">
-        <v>1945.91944608754</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2480.958395878189</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2505.76797983697</v>
-      </c>
-      <c r="G5" t="n">
-        <v>22.34239316067305</v>
+      <c r="D6" t="n">
+        <v>2039.71131874048</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2600.538748698704</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2626.544136185691</v>
+      </c>
+      <c r="G6" t="n">
+        <v>22.34239316067306</v>
       </c>
     </row>
   </sheetData>
@@ -576,7 +599,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -599,31 +622,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>OH2WPL-4YHIQ-PN3IGW</t>
+          <t>O3AGWH-G4C2J-UFJ4SZ</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3895.34</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>OVQ3WZ-S4YBG-PYSNMD</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>3842.84</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>OHYCMZ-HRMYJ-3LBGVO</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>3754.57</v>
+        <v>4028.06</v>
       </c>
     </row>
   </sheetData>
@@ -637,7 +640,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -655,7 +658,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>OOKWVY-NBHQR-7UKIHZ</t>
+          <t>O5QCXD-FV45R-I2IIWC</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ONNK2N-RXQ3C-N4K6IG</t>
         </is>
       </c>
     </row>
